--- a/Jeremy Thesis/MLP Model Creation Result Averages.xlsx
+++ b/Jeremy Thesis/MLP Model Creation Result Averages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miste\PycharmProjects\SCAL_USIgnite-911\Jeremy Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291936DC-14A6-40F3-97AF-5F2468CE2909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1F4D45-C555-4AEE-8591-4A2E5E708774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -640,12 +640,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="1920" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mj-ea"/>
@@ -672,12 +672,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr sz="1920" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mj-ea"/>
@@ -1029,12 +1029,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="dk1"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1061,12 +1061,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1099,12 +1099,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1163,12 +1163,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="dk1"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1195,12 +1195,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1227,12 +1227,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1269,12 +1269,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -1309,7 +1309,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1500">
+        <a:defRPr sz="1600" b="1" i="0" baseline="0">
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
           <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
           <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
         </a:defRPr>
@@ -2193,7 +2199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
@@ -8278,8 +8284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEEE18D-FF28-41CE-B092-30A7CA6252B9}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
